--- a/quiz_results.xlsx
+++ b/quiz_results.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
       <c r="D2" s="2" t="n">
-        <v>45634.735020625</v>
+        <v>45634.74766494213</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
       <c r="D3" s="2" t="n">
-        <v>45634.73502409989</v>
+        <v>45634.74766860872</v>
       </c>
     </row>
   </sheetData>
